--- a/JDD.xlsx
+++ b/JDD.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="feuille_jdd" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="feuille_individuelle" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="24">
   <si>
     <t>Nom variable</t>
   </si>
@@ -19,7 +20,13 @@
     <t>Commentaires</t>
   </si>
   <si>
-    <t>Test_auto</t>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>Test3</t>
   </si>
   <si>
     <t>Utilisation</t>
@@ -52,16 +59,31 @@
     <t>chrome</t>
   </si>
   <si>
-    <t>test_1</t>
+    <t>variable_1</t>
   </si>
   <si>
     <t>simulation</t>
   </si>
   <si>
-    <t>test_2</t>
+    <t>variable_2</t>
   </si>
   <si>
     <t>back_office</t>
+  </si>
+  <si>
+    <t>Individuel_1</t>
+  </si>
+  <si>
+    <t>Individuel_2</t>
+  </si>
+  <si>
+    <t>Individuel_3</t>
+  </si>
+  <si>
+    <t>variable__magique_1</t>
+  </si>
+  <si>
+    <t>variable__magique_2</t>
   </si>
 </sst>
 </file>
@@ -224,6 +246,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
@@ -442,78 +468,262 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4">
       <c r="A4" s="9"/>
       <c r="B4" s="10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="C5"/>
+    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink r:id="rId3" ref="E5"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.13"/>
+    <col customWidth="1" min="2" max="2" width="43.13"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="C5"/>
+    <hyperlink r:id="rId2" ref="D5"/>
+    <hyperlink r:id="rId3" ref="E5"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
--- a/JDD.xlsx
+++ b/JDD.xlsx
@@ -80,10 +80,10 @@
     <t>Individuel_3</t>
   </si>
   <si>
-    <t>variable__magique_1</t>
-  </si>
-  <si>
-    <t>variable__magique_2</t>
+    <t>lion</t>
+  </si>
+  <si>
+    <t>porc</t>
   </si>
 </sst>
 </file>
@@ -686,36 +686,36 @@
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>16</v>
+      <c r="C7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>18</v>
+      <c r="C8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
